--- a/Doc/数据库设计/CRM.xlsx
+++ b/Doc/数据库设计/CRM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLV\Zerg\Dev\Code\YP.CodeGen\bin\Debug\DesignExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLV\Zerg\Doc\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26175" windowHeight="11745" firstSheet="18" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26175" windowHeight="11745" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ClientInfo" sheetId="30" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="307">
   <si>
     <t>Broker</t>
   </si>
@@ -917,15 +917,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>decimal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1083,6 +1075,10 @@
   </si>
   <si>
     <t>Sexy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3793,7 +3789,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -3824,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -4204,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -4235,7 +4231,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -4676,7 +4672,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -5083,10 +5079,10 @@
         <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -5114,10 +5110,10 @@
         <v>174</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -5145,10 +5141,10 @@
         <v>177</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -5773,10 +5769,10 @@
         <v>154</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -6109,8 +6105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6299,7 +6295,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -6309,7 +6305,7 @@
         <v>146</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
@@ -8896,10 +8892,10 @@
         <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -9080,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9336,7 +9332,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>30</v>
@@ -9388,17 +9384,17 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>30</v>
@@ -9584,10 +9580,10 @@
         <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -9605,7 +9601,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -9636,7 +9632,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -9646,7 +9642,7 @@
         <v>58</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>30</v>
@@ -9667,7 +9663,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -9677,7 +9673,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>30</v>
@@ -9739,10 +9735,10 @@
         <v>67</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -10518,7 +10514,7 @@
         <v>288</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -10668,7 +10664,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10832,10 +10828,10 @@
         <v>260</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
